--- a/Offline/BusinessManagement/Commerce/CampaignPrioritization.xlsx
+++ b/Offline/BusinessManagement/Commerce/CampaignPrioritization.xlsx
@@ -4,17 +4,27 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="828" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Academic IX-X" sheetId="5" r:id="rId4"/>
+    <sheet name="Academic XI-XII" sheetId="8" r:id="rId5"/>
+    <sheet name="Academic BCom" sheetId="9" r:id="rId6"/>
+    <sheet name="Professional Courses" sheetId="6" r:id="rId7"/>
+    <sheet name="Corporate Training" sheetId="7" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$W$1:$W$85</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="172">
   <si>
     <t>Student Cluster</t>
   </si>
@@ -38,13 +48,505 @@
   </si>
   <si>
     <t>Jadavpur Vidyapith</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>WBCHSE</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Bengali</t>
+  </si>
+  <si>
+    <t>SlNo</t>
+  </si>
+  <si>
+    <t>Jodhpur Park Boys</t>
+  </si>
+  <si>
+    <t>Jodhpur Park Girls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Girls </t>
+  </si>
+  <si>
+    <t>Kalidhan Institute</t>
+  </si>
+  <si>
+    <t>Jagatbondhu school</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Patho bhavan</t>
+  </si>
+  <si>
+    <t>National School for boys</t>
+  </si>
+  <si>
+    <t>Diocesan Girls School</t>
+  </si>
+  <si>
+    <t>Kamala Girls</t>
+  </si>
+  <si>
+    <t>Nava Nalanda</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Fern Road</t>
+  </si>
+  <si>
+    <t>Jodhpur Park</t>
+  </si>
+  <si>
+    <t>Southern Avenue</t>
+  </si>
+  <si>
+    <t>Ballygunje</t>
+  </si>
+  <si>
+    <t>Elgin Road</t>
+  </si>
+  <si>
+    <t>Hazra Road</t>
+  </si>
+  <si>
+    <t>National School for girls</t>
+  </si>
+  <si>
+    <t>Deshopriyo Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamala Chatterjee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beltola Girls </t>
+  </si>
+  <si>
+    <t>Hazra</t>
+  </si>
+  <si>
+    <t>Netaji Nagar</t>
+  </si>
+  <si>
+    <t>Naktola</t>
+  </si>
+  <si>
+    <t>Harimoti</t>
+  </si>
+  <si>
+    <t>Garia</t>
+  </si>
+  <si>
+    <t>Khanpur Boys</t>
+  </si>
+  <si>
+    <t>Bijoybargh</t>
+  </si>
+  <si>
+    <t>Briji</t>
+  </si>
+  <si>
+    <t>Boroda prasad</t>
+  </si>
+  <si>
+    <t>Ballygunje High School</t>
+  </si>
+  <si>
+    <t>Motor vehicles</t>
+  </si>
+  <si>
+    <t>A.K Ghosh Memorial</t>
+  </si>
+  <si>
+    <t>Anwarshah Road</t>
+  </si>
+  <si>
+    <t>Andrews School</t>
+  </si>
+  <si>
+    <t>Selimpur</t>
+  </si>
+  <si>
+    <t>Jadavpur</t>
+  </si>
+  <si>
+    <t>Vidya Bharati</t>
+  </si>
+  <si>
+    <t>New Alipore</t>
+  </si>
+  <si>
+    <t>In the adverisement we will specify "Ekhane bangla madhyame porasuno hoye"</t>
+  </si>
+  <si>
+    <t>ebong porikha newa hoye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In case of Bengali medium we need to say </t>
+  </si>
+  <si>
+    <t>Quality of SME</t>
+  </si>
+  <si>
+    <t>ROI for students</t>
+  </si>
+  <si>
+    <t>Anodiam Credibility</t>
+  </si>
+  <si>
+    <t>Affordability</t>
+  </si>
+  <si>
+    <t>Student Cluster Rating</t>
+  </si>
+  <si>
+    <t>Course Quality</t>
+  </si>
+  <si>
+    <t>Bulk</t>
+  </si>
+  <si>
+    <t>Ease of Access</t>
+  </si>
+  <si>
+    <t>Access Effectiveness</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Institution</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Marketing Mode</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Date Time</t>
+  </si>
+  <si>
+    <t>Final Rating</t>
+  </si>
+  <si>
+    <t>Handbill</t>
+  </si>
+  <si>
+    <t>Material Required</t>
+  </si>
+  <si>
+    <t>Marketing Drive</t>
+  </si>
+  <si>
+    <t>Handbills 2Km Patuli East</t>
+  </si>
+  <si>
+    <t>Handbills 2Km Panchashire</t>
+  </si>
+  <si>
+    <t>Handbills 2Km Bengal Ambuja</t>
+  </si>
+  <si>
+    <t>Handbills 2Km Narupalli</t>
+  </si>
+  <si>
+    <t>Generic Anodiam Handbill</t>
+  </si>
+  <si>
+    <t>fortnightly</t>
+  </si>
+  <si>
+    <t>Number of times</t>
+  </si>
+  <si>
+    <t>Ownership</t>
+  </si>
+  <si>
+    <t>Santanu</t>
+  </si>
+  <si>
+    <t>Engg Colleges within 1k</t>
+  </si>
+  <si>
+    <t>Schools within 1k</t>
+  </si>
+  <si>
+    <t>College within 1k</t>
+  </si>
+  <si>
+    <t>Boards</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>ICSE</t>
+  </si>
+  <si>
+    <t>IX</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Commercial Studies</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>WB</t>
+  </si>
+  <si>
+    <t>Book Keeping</t>
+  </si>
+  <si>
+    <t>Business Organization</t>
+  </si>
+  <si>
+    <t>CBSE</t>
+  </si>
+  <si>
+    <t>XII</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Commerce</t>
+  </si>
+  <si>
+    <t>Business Studies</t>
+  </si>
+  <si>
+    <t>XI</t>
+  </si>
+  <si>
+    <t>Informatics Practices</t>
+  </si>
+  <si>
+    <t>Legal Studies</t>
+  </si>
+  <si>
+    <t>Accountancy</t>
+  </si>
+  <si>
+    <t>Costing &amp; Taxation</t>
+  </si>
+  <si>
+    <t>Business Law</t>
+  </si>
+  <si>
+    <t>Compulsory</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Social Studies (SST) - Economics (20%)</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>Optionality</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>University</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>St Xavier's (Aut)</t>
+  </si>
+  <si>
+    <t>SXUK</t>
+  </si>
+  <si>
+    <t>Amity</t>
+  </si>
+  <si>
+    <t>Techno</t>
+  </si>
+  <si>
+    <t>Heritage</t>
+  </si>
+  <si>
+    <t>Colleges</t>
+  </si>
+  <si>
+    <t>BESC</t>
+  </si>
+  <si>
+    <t>City South</t>
+  </si>
+  <si>
+    <t>City North</t>
+  </si>
+  <si>
+    <t>Goenka</t>
+  </si>
+  <si>
+    <t>Jaipuria</t>
+  </si>
+  <si>
+    <t>Surendranath</t>
+  </si>
+  <si>
+    <t>Bangabasi</t>
+  </si>
+  <si>
+    <t>Andrews</t>
+  </si>
+  <si>
+    <t>SNU</t>
+  </si>
+  <si>
+    <t>Sreshikshayatan (Aut)</t>
+  </si>
+  <si>
+    <t>6 Sems</t>
+  </si>
+  <si>
+    <t>Adv Accounting I</t>
+  </si>
+  <si>
+    <t>Adv Accounting II</t>
+  </si>
+  <si>
+    <t>Cost &amp; Management Accounting I</t>
+  </si>
+  <si>
+    <t>Cost &amp; Management Accounting II</t>
+  </si>
+  <si>
+    <t>Adv Accounting III</t>
+  </si>
+  <si>
+    <t>DT &amp; IDT I (Direct / Indirect Tax)</t>
+  </si>
+  <si>
+    <t>DT &amp; IDT II (Direct / Indirect Tax)</t>
+  </si>
+  <si>
+    <t>Financial Management</t>
+  </si>
+  <si>
+    <t>Subsidiary</t>
+  </si>
+  <si>
+    <t>Micro Economics</t>
+  </si>
+  <si>
+    <t>Macro Economics</t>
+  </si>
+  <si>
+    <t>Development Economics</t>
+  </si>
+  <si>
+    <t>Business Management I</t>
+  </si>
+  <si>
+    <t>Business Management II</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Business Mathematics</t>
+  </si>
+  <si>
+    <t>Business Statistics</t>
+  </si>
+  <si>
+    <t>Maths &amp; Stats</t>
+  </si>
+  <si>
+    <t>Company Law</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>Enterpreneurship</t>
+  </si>
+  <si>
+    <t>Environmantal Studies</t>
+  </si>
+  <si>
+    <t>State of the Art</t>
+  </si>
+  <si>
+    <t>Finance &amp; Accounting, FACT</t>
+  </si>
+  <si>
+    <t>Honours</t>
+  </si>
+  <si>
+    <t>HRM(Human Resource Management)</t>
+  </si>
+  <si>
+    <t>Eseentials of Business Communication</t>
+  </si>
+  <si>
+    <t>E-Commerce</t>
+  </si>
+  <si>
+    <t>IT Applications in Business</t>
+  </si>
+  <si>
+    <t>Computerised Accounting &amp; eFiling of Tax Returns</t>
+  </si>
+  <si>
+    <t>Financial Reporting &amp; Analysis of Fin Statement</t>
+  </si>
+  <si>
+    <t>Audit &amp; Assurance</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Credit Type</t>
+  </si>
+  <si>
+    <t>Faculty</t>
+  </si>
+  <si>
+    <t>Anupam Sen</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Debasish Nath</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,16 +554,96 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Oxygen"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Oxygen"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -69,12 +651,481 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,19 +1432,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -407,7 +1458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -422,7 +1473,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -437,7 +1488,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -452,7 +1503,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -470,4 +1521,3700 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W85"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="12" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="2">
+        <v>4</v>
+      </c>
+      <c r="L2" s="3">
+        <v>45103</v>
+      </c>
+      <c r="M2" s="2">
+        <v>5</v>
+      </c>
+      <c r="N2" s="2">
+        <v>4</v>
+      </c>
+      <c r="O2" s="2">
+        <v>4</v>
+      </c>
+      <c r="P2" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>4</v>
+      </c>
+      <c r="R2" s="2">
+        <v>4</v>
+      </c>
+      <c r="S2" s="2">
+        <v>4</v>
+      </c>
+      <c r="T2" s="2">
+        <v>4</v>
+      </c>
+      <c r="U2" s="2">
+        <v>3</v>
+      </c>
+      <c r="V2" s="2">
+        <v>3</v>
+      </c>
+      <c r="W2" s="2">
+        <f t="shared" ref="W2:W43" si="0">(M2+N2+O2+P2+Q2)*(R2+S2+T2+U2+V2)/625</f>
+        <v>0.6048</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4</v>
+      </c>
+      <c r="L3" s="3">
+        <v>45103</v>
+      </c>
+      <c r="M3" s="2">
+        <v>5</v>
+      </c>
+      <c r="N3" s="2">
+        <v>5</v>
+      </c>
+      <c r="O3" s="2">
+        <v>5</v>
+      </c>
+      <c r="P3" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>3</v>
+      </c>
+      <c r="R3" s="2">
+        <v>4</v>
+      </c>
+      <c r="S3" s="2">
+        <v>4</v>
+      </c>
+      <c r="T3" s="2">
+        <v>2</v>
+      </c>
+      <c r="U3" s="2">
+        <v>3</v>
+      </c>
+      <c r="V3" s="2">
+        <v>3</v>
+      </c>
+      <c r="W3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58879999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="2">
+        <v>4</v>
+      </c>
+      <c r="L4" s="3">
+        <v>45103</v>
+      </c>
+      <c r="M4" s="2">
+        <v>5</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3</v>
+      </c>
+      <c r="O4" s="2">
+        <v>4</v>
+      </c>
+      <c r="P4" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>4</v>
+      </c>
+      <c r="R4" s="2">
+        <v>3</v>
+      </c>
+      <c r="S4" s="2">
+        <v>3</v>
+      </c>
+      <c r="T4" s="2">
+        <v>4</v>
+      </c>
+      <c r="U4" s="2">
+        <v>3</v>
+      </c>
+      <c r="V4" s="2">
+        <v>3</v>
+      </c>
+      <c r="W4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="2">
+        <v>4</v>
+      </c>
+      <c r="L5" s="3">
+        <v>45103</v>
+      </c>
+      <c r="M5" s="2">
+        <v>5</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2</v>
+      </c>
+      <c r="P5" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>4</v>
+      </c>
+      <c r="R5" s="2">
+        <v>2</v>
+      </c>
+      <c r="S5" s="2">
+        <v>2</v>
+      </c>
+      <c r="T5" s="2">
+        <v>4</v>
+      </c>
+      <c r="U5" s="2">
+        <v>2</v>
+      </c>
+      <c r="V5" s="2">
+        <v>3</v>
+      </c>
+      <c r="W5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1</v>
+      </c>
+      <c r="U6" s="2">
+        <v>1</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1</v>
+      </c>
+      <c r="W6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2">
+        <v>1</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1</v>
+      </c>
+      <c r="W7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1</v>
+      </c>
+      <c r="U8" s="2">
+        <v>1</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1</v>
+      </c>
+      <c r="W8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2">
+        <v>1</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1</v>
+      </c>
+      <c r="T9" s="2">
+        <v>1</v>
+      </c>
+      <c r="U9" s="2">
+        <v>1</v>
+      </c>
+      <c r="V9" s="2">
+        <v>1</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
+        <v>1</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1</v>
+      </c>
+      <c r="T10" s="2">
+        <v>1</v>
+      </c>
+      <c r="U10" s="2">
+        <v>1</v>
+      </c>
+      <c r="V10" s="2">
+        <v>1</v>
+      </c>
+      <c r="W10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1</v>
+      </c>
+      <c r="T11" s="2">
+        <v>1</v>
+      </c>
+      <c r="U11" s="2">
+        <v>1</v>
+      </c>
+      <c r="V11" s="2">
+        <v>1</v>
+      </c>
+      <c r="W11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2">
+        <v>1</v>
+      </c>
+      <c r="T12" s="2">
+        <v>1</v>
+      </c>
+      <c r="U12" s="2">
+        <v>1</v>
+      </c>
+      <c r="V12" s="2">
+        <v>1</v>
+      </c>
+      <c r="W12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2">
+        <v>1</v>
+      </c>
+      <c r="S13" s="2">
+        <v>1</v>
+      </c>
+      <c r="T13" s="2">
+        <v>1</v>
+      </c>
+      <c r="U13" s="2">
+        <v>1</v>
+      </c>
+      <c r="V13" s="2">
+        <v>1</v>
+      </c>
+      <c r="W13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2">
+        <v>1</v>
+      </c>
+      <c r="S14" s="2">
+        <v>1</v>
+      </c>
+      <c r="T14" s="2">
+        <v>1</v>
+      </c>
+      <c r="U14" s="2">
+        <v>1</v>
+      </c>
+      <c r="V14" s="2">
+        <v>1</v>
+      </c>
+      <c r="W14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2">
+        <v>1</v>
+      </c>
+      <c r="S15" s="2">
+        <v>1</v>
+      </c>
+      <c r="T15" s="2">
+        <v>1</v>
+      </c>
+      <c r="U15" s="2">
+        <v>1</v>
+      </c>
+      <c r="V15" s="2">
+        <v>1</v>
+      </c>
+      <c r="W15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2">
+        <v>1</v>
+      </c>
+      <c r="S16" s="2">
+        <v>1</v>
+      </c>
+      <c r="T16" s="2">
+        <v>1</v>
+      </c>
+      <c r="U16" s="2">
+        <v>1</v>
+      </c>
+      <c r="V16" s="2">
+        <v>1</v>
+      </c>
+      <c r="W16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2">
+        <v>1</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2">
+        <v>1</v>
+      </c>
+      <c r="S17" s="2">
+        <v>1</v>
+      </c>
+      <c r="T17" s="2">
+        <v>1</v>
+      </c>
+      <c r="U17" s="2">
+        <v>1</v>
+      </c>
+      <c r="V17" s="2">
+        <v>1</v>
+      </c>
+      <c r="W17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2">
+        <v>1</v>
+      </c>
+      <c r="S18" s="2">
+        <v>1</v>
+      </c>
+      <c r="T18" s="2">
+        <v>1</v>
+      </c>
+      <c r="U18" s="2">
+        <v>1</v>
+      </c>
+      <c r="V18" s="2">
+        <v>1</v>
+      </c>
+      <c r="W18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2">
+        <v>1</v>
+      </c>
+      <c r="S19" s="2">
+        <v>1</v>
+      </c>
+      <c r="T19" s="2">
+        <v>1</v>
+      </c>
+      <c r="U19" s="2">
+        <v>1</v>
+      </c>
+      <c r="V19" s="2">
+        <v>1</v>
+      </c>
+      <c r="W19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2">
+        <v>1</v>
+      </c>
+      <c r="S20" s="2">
+        <v>1</v>
+      </c>
+      <c r="T20" s="2">
+        <v>1</v>
+      </c>
+      <c r="U20" s="2">
+        <v>1</v>
+      </c>
+      <c r="V20" s="2">
+        <v>1</v>
+      </c>
+      <c r="W20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2">
+        <v>1</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1</v>
+      </c>
+      <c r="O21" s="2">
+        <v>1</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2">
+        <v>1</v>
+      </c>
+      <c r="S21" s="2">
+        <v>1</v>
+      </c>
+      <c r="T21" s="2">
+        <v>1</v>
+      </c>
+      <c r="U21" s="2">
+        <v>1</v>
+      </c>
+      <c r="V21" s="2">
+        <v>1</v>
+      </c>
+      <c r="W21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2">
+        <v>1</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2">
+        <v>1</v>
+      </c>
+      <c r="S22" s="2">
+        <v>1</v>
+      </c>
+      <c r="T22" s="2">
+        <v>1</v>
+      </c>
+      <c r="U22" s="2">
+        <v>1</v>
+      </c>
+      <c r="V22" s="2">
+        <v>1</v>
+      </c>
+      <c r="W22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>1</v>
+      </c>
+      <c r="R23" s="2">
+        <v>1</v>
+      </c>
+      <c r="S23" s="2">
+        <v>1</v>
+      </c>
+      <c r="T23" s="2">
+        <v>1</v>
+      </c>
+      <c r="U23" s="2">
+        <v>1</v>
+      </c>
+      <c r="V23" s="2">
+        <v>1</v>
+      </c>
+      <c r="W23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2">
+        <v>1</v>
+      </c>
+      <c r="N24" s="2">
+        <v>1</v>
+      </c>
+      <c r="O24" s="2">
+        <v>1</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>1</v>
+      </c>
+      <c r="R24" s="2">
+        <v>1</v>
+      </c>
+      <c r="S24" s="2">
+        <v>1</v>
+      </c>
+      <c r="T24" s="2">
+        <v>1</v>
+      </c>
+      <c r="U24" s="2">
+        <v>1</v>
+      </c>
+      <c r="V24" s="2">
+        <v>1</v>
+      </c>
+      <c r="W24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1</v>
+      </c>
+      <c r="O25" s="2">
+        <v>1</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>1</v>
+      </c>
+      <c r="R25" s="2">
+        <v>1</v>
+      </c>
+      <c r="S25" s="2">
+        <v>1</v>
+      </c>
+      <c r="T25" s="2">
+        <v>1</v>
+      </c>
+      <c r="U25" s="2">
+        <v>1</v>
+      </c>
+      <c r="V25" s="2">
+        <v>1</v>
+      </c>
+      <c r="W25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1</v>
+      </c>
+      <c r="O26" s="2">
+        <v>1</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>1</v>
+      </c>
+      <c r="R26" s="2">
+        <v>1</v>
+      </c>
+      <c r="S26" s="2">
+        <v>1</v>
+      </c>
+      <c r="T26" s="2">
+        <v>1</v>
+      </c>
+      <c r="U26" s="2">
+        <v>1</v>
+      </c>
+      <c r="V26" s="2">
+        <v>1</v>
+      </c>
+      <c r="W26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2">
+        <v>1</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>1</v>
+      </c>
+      <c r="R27" s="2">
+        <v>1</v>
+      </c>
+      <c r="S27" s="2">
+        <v>1</v>
+      </c>
+      <c r="T27" s="2">
+        <v>1</v>
+      </c>
+      <c r="U27" s="2">
+        <v>1</v>
+      </c>
+      <c r="V27" s="2">
+        <v>1</v>
+      </c>
+      <c r="W27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2">
+        <v>1</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1</v>
+      </c>
+      <c r="O28" s="2">
+        <v>1</v>
+      </c>
+      <c r="P28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>1</v>
+      </c>
+      <c r="R28" s="2">
+        <v>1</v>
+      </c>
+      <c r="S28" s="2">
+        <v>1</v>
+      </c>
+      <c r="T28" s="2">
+        <v>1</v>
+      </c>
+      <c r="U28" s="2">
+        <v>1</v>
+      </c>
+      <c r="V28" s="2">
+        <v>1</v>
+      </c>
+      <c r="W28" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2">
+        <v>1</v>
+      </c>
+      <c r="N29" s="2">
+        <v>1</v>
+      </c>
+      <c r="O29" s="2">
+        <v>1</v>
+      </c>
+      <c r="P29" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>1</v>
+      </c>
+      <c r="R29" s="2">
+        <v>1</v>
+      </c>
+      <c r="S29" s="2">
+        <v>1</v>
+      </c>
+      <c r="T29" s="2">
+        <v>1</v>
+      </c>
+      <c r="U29" s="2">
+        <v>1</v>
+      </c>
+      <c r="V29" s="2">
+        <v>1</v>
+      </c>
+      <c r="W29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2">
+        <v>1</v>
+      </c>
+      <c r="N30" s="2">
+        <v>1</v>
+      </c>
+      <c r="O30" s="2">
+        <v>1</v>
+      </c>
+      <c r="P30" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>1</v>
+      </c>
+      <c r="R30" s="2">
+        <v>1</v>
+      </c>
+      <c r="S30" s="2">
+        <v>1</v>
+      </c>
+      <c r="T30" s="2">
+        <v>1</v>
+      </c>
+      <c r="U30" s="2">
+        <v>1</v>
+      </c>
+      <c r="V30" s="2">
+        <v>1</v>
+      </c>
+      <c r="W30" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2">
+        <v>1</v>
+      </c>
+      <c r="N31" s="2">
+        <v>1</v>
+      </c>
+      <c r="O31" s="2">
+        <v>1</v>
+      </c>
+      <c r="P31" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>1</v>
+      </c>
+      <c r="R31" s="2">
+        <v>1</v>
+      </c>
+      <c r="S31" s="2">
+        <v>1</v>
+      </c>
+      <c r="T31" s="2">
+        <v>1</v>
+      </c>
+      <c r="U31" s="2">
+        <v>1</v>
+      </c>
+      <c r="V31" s="2">
+        <v>1</v>
+      </c>
+      <c r="W31" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2">
+        <v>1</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1</v>
+      </c>
+      <c r="P32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>1</v>
+      </c>
+      <c r="R32" s="2">
+        <v>1</v>
+      </c>
+      <c r="S32" s="2">
+        <v>1</v>
+      </c>
+      <c r="T32" s="2">
+        <v>1</v>
+      </c>
+      <c r="U32" s="2">
+        <v>1</v>
+      </c>
+      <c r="V32" s="2">
+        <v>1</v>
+      </c>
+      <c r="W32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2">
+        <v>1</v>
+      </c>
+      <c r="N33" s="2">
+        <v>1</v>
+      </c>
+      <c r="O33" s="2">
+        <v>1</v>
+      </c>
+      <c r="P33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>1</v>
+      </c>
+      <c r="R33" s="2">
+        <v>1</v>
+      </c>
+      <c r="S33" s="2">
+        <v>1</v>
+      </c>
+      <c r="T33" s="2">
+        <v>1</v>
+      </c>
+      <c r="U33" s="2">
+        <v>1</v>
+      </c>
+      <c r="V33" s="2">
+        <v>1</v>
+      </c>
+      <c r="W33" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2">
+        <v>1</v>
+      </c>
+      <c r="N34" s="2">
+        <v>1</v>
+      </c>
+      <c r="O34" s="2">
+        <v>1</v>
+      </c>
+      <c r="P34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>1</v>
+      </c>
+      <c r="R34" s="2">
+        <v>1</v>
+      </c>
+      <c r="S34" s="2">
+        <v>1</v>
+      </c>
+      <c r="T34" s="2">
+        <v>1</v>
+      </c>
+      <c r="U34" s="2">
+        <v>1</v>
+      </c>
+      <c r="V34" s="2">
+        <v>1</v>
+      </c>
+      <c r="W34" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2">
+        <v>1</v>
+      </c>
+      <c r="N35" s="2">
+        <v>1</v>
+      </c>
+      <c r="O35" s="2">
+        <v>1</v>
+      </c>
+      <c r="P35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>1</v>
+      </c>
+      <c r="R35" s="2">
+        <v>1</v>
+      </c>
+      <c r="S35" s="2">
+        <v>1</v>
+      </c>
+      <c r="T35" s="2">
+        <v>1</v>
+      </c>
+      <c r="U35" s="2">
+        <v>1</v>
+      </c>
+      <c r="V35" s="2">
+        <v>1</v>
+      </c>
+      <c r="W35" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2">
+        <v>1</v>
+      </c>
+      <c r="N36" s="2">
+        <v>1</v>
+      </c>
+      <c r="O36" s="2">
+        <v>1</v>
+      </c>
+      <c r="P36" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>1</v>
+      </c>
+      <c r="R36" s="2">
+        <v>1</v>
+      </c>
+      <c r="S36" s="2">
+        <v>1</v>
+      </c>
+      <c r="T36" s="2">
+        <v>1</v>
+      </c>
+      <c r="U36" s="2">
+        <v>1</v>
+      </c>
+      <c r="V36" s="2">
+        <v>1</v>
+      </c>
+      <c r="W36" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2">
+        <v>1</v>
+      </c>
+      <c r="N37" s="2">
+        <v>1</v>
+      </c>
+      <c r="O37" s="2">
+        <v>1</v>
+      </c>
+      <c r="P37" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>1</v>
+      </c>
+      <c r="R37" s="2">
+        <v>1</v>
+      </c>
+      <c r="S37" s="2">
+        <v>1</v>
+      </c>
+      <c r="T37" s="2">
+        <v>1</v>
+      </c>
+      <c r="U37" s="2">
+        <v>1</v>
+      </c>
+      <c r="V37" s="2">
+        <v>1</v>
+      </c>
+      <c r="W37" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2">
+        <v>1</v>
+      </c>
+      <c r="N38" s="2">
+        <v>1</v>
+      </c>
+      <c r="O38" s="2">
+        <v>1</v>
+      </c>
+      <c r="P38" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>1</v>
+      </c>
+      <c r="R38" s="2">
+        <v>1</v>
+      </c>
+      <c r="S38" s="2">
+        <v>1</v>
+      </c>
+      <c r="T38" s="2">
+        <v>1</v>
+      </c>
+      <c r="U38" s="2">
+        <v>1</v>
+      </c>
+      <c r="V38" s="2">
+        <v>1</v>
+      </c>
+      <c r="W38" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2">
+        <v>1</v>
+      </c>
+      <c r="N39" s="2">
+        <v>1</v>
+      </c>
+      <c r="O39" s="2">
+        <v>1</v>
+      </c>
+      <c r="P39" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>1</v>
+      </c>
+      <c r="R39" s="2">
+        <v>1</v>
+      </c>
+      <c r="S39" s="2">
+        <v>1</v>
+      </c>
+      <c r="T39" s="2">
+        <v>1</v>
+      </c>
+      <c r="U39" s="2">
+        <v>1</v>
+      </c>
+      <c r="V39" s="2">
+        <v>1</v>
+      </c>
+      <c r="W39" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2">
+        <v>1</v>
+      </c>
+      <c r="N40" s="2">
+        <v>1</v>
+      </c>
+      <c r="O40" s="2">
+        <v>1</v>
+      </c>
+      <c r="P40" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>1</v>
+      </c>
+      <c r="R40" s="2">
+        <v>1</v>
+      </c>
+      <c r="S40" s="2">
+        <v>1</v>
+      </c>
+      <c r="T40" s="2">
+        <v>1</v>
+      </c>
+      <c r="U40" s="2">
+        <v>1</v>
+      </c>
+      <c r="V40" s="2">
+        <v>1</v>
+      </c>
+      <c r="W40" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2">
+        <v>1</v>
+      </c>
+      <c r="N41" s="2">
+        <v>1</v>
+      </c>
+      <c r="O41" s="2">
+        <v>1</v>
+      </c>
+      <c r="P41" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>1</v>
+      </c>
+      <c r="R41" s="2">
+        <v>1</v>
+      </c>
+      <c r="S41" s="2">
+        <v>1</v>
+      </c>
+      <c r="T41" s="2">
+        <v>1</v>
+      </c>
+      <c r="U41" s="2">
+        <v>1</v>
+      </c>
+      <c r="V41" s="2">
+        <v>1</v>
+      </c>
+      <c r="W41" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2">
+        <v>1</v>
+      </c>
+      <c r="N42" s="2">
+        <v>1</v>
+      </c>
+      <c r="O42" s="2">
+        <v>1</v>
+      </c>
+      <c r="P42" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>1</v>
+      </c>
+      <c r="R42" s="2">
+        <v>1</v>
+      </c>
+      <c r="S42" s="2">
+        <v>1</v>
+      </c>
+      <c r="T42" s="2">
+        <v>1</v>
+      </c>
+      <c r="U42" s="2">
+        <v>1</v>
+      </c>
+      <c r="V42" s="2">
+        <v>1</v>
+      </c>
+      <c r="W42" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2">
+        <v>1</v>
+      </c>
+      <c r="N43" s="2">
+        <v>1</v>
+      </c>
+      <c r="O43" s="2">
+        <v>1</v>
+      </c>
+      <c r="P43" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>1</v>
+      </c>
+      <c r="R43" s="2">
+        <v>1</v>
+      </c>
+      <c r="S43" s="2">
+        <v>1</v>
+      </c>
+      <c r="T43" s="2">
+        <v>1</v>
+      </c>
+      <c r="U43" s="2">
+        <v>1</v>
+      </c>
+      <c r="V43" s="2">
+        <v>1</v>
+      </c>
+      <c r="W43" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F61" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61" t="s">
+        <v>25</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F62" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F63" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F64" t="s">
+        <v>37</v>
+      </c>
+      <c r="G64" t="s">
+        <v>37</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F65" t="s">
+        <v>38</v>
+      </c>
+      <c r="G65" t="s">
+        <v>39</v>
+      </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F66" t="s">
+        <v>40</v>
+      </c>
+      <c r="G66" t="s">
+        <v>41</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F67" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" t="s">
+        <v>42</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F68" t="s">
+        <v>43</v>
+      </c>
+      <c r="G68" t="s">
+        <v>39</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F69" t="s">
+        <v>44</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F70" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" t="s">
+        <v>50</v>
+      </c>
+      <c r="H70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" t="s">
+        <v>28</v>
+      </c>
+      <c r="H78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F79" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" t="s">
+        <v>30</v>
+      </c>
+      <c r="H79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F80" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80" t="s">
+        <v>32</v>
+      </c>
+      <c r="H80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F81" t="s">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>29</v>
+      </c>
+      <c r="H81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F82" t="s">
+        <v>23</v>
+      </c>
+      <c r="G82" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F83" t="s">
+        <v>46</v>
+      </c>
+      <c r="G83" t="s">
+        <v>47</v>
+      </c>
+      <c r="H83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F84" t="s">
+        <v>48</v>
+      </c>
+      <c r="G84" t="s">
+        <v>49</v>
+      </c>
+      <c r="H84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F85" t="s">
+        <v>51</v>
+      </c>
+      <c r="G85" t="s">
+        <v>52</v>
+      </c>
+      <c r="H85">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="W1:W85"/>
+  <sortState ref="A2:W85">
+    <sortCondition descending="1" ref="W1"/>
+  </sortState>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2:V43">
+      <formula1>"1, 2, 3, 4, 5"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="13">
+        <v>100</v>
+      </c>
+      <c r="F2" s="76" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="32"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="15">
+        <v>100</v>
+      </c>
+      <c r="F3" s="76"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="32"/>
+      <c r="B4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="15">
+        <v>100</v>
+      </c>
+      <c r="F4" s="76"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="18">
+        <v>100</v>
+      </c>
+      <c r="F5" s="76"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="21">
+        <v>20</v>
+      </c>
+      <c r="F6" s="76"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="35"/>
+      <c r="B7" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="23">
+        <v>20</v>
+      </c>
+      <c r="F7" s="76"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="26">
+        <v>100</v>
+      </c>
+      <c r="F8" s="76"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="37"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="28">
+        <v>100</v>
+      </c>
+      <c r="F9" s="76"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="37"/>
+      <c r="B10" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="28">
+        <v>100</v>
+      </c>
+      <c r="F10" s="76"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="38"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="30">
+        <v>100</v>
+      </c>
+      <c r="F11" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F2:F11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="13">
+        <v>100</v>
+      </c>
+      <c r="F2" s="76" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="32"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="15">
+        <v>100</v>
+      </c>
+      <c r="F3" s="76"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="32"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="15">
+        <v>100</v>
+      </c>
+      <c r="F4" s="76"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="32"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="15">
+        <v>100</v>
+      </c>
+      <c r="F5" s="76"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="32"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="15">
+        <v>100</v>
+      </c>
+      <c r="F6" s="76"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="32"/>
+      <c r="B7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="15">
+        <v>100</v>
+      </c>
+      <c r="F7" s="76"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="32"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="15">
+        <v>100</v>
+      </c>
+      <c r="F8" s="76"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="15">
+        <v>100</v>
+      </c>
+      <c r="F9" s="76"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="32"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="15">
+        <v>100</v>
+      </c>
+      <c r="F10" s="76"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="33"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="18">
+        <v>100</v>
+      </c>
+      <c r="F11" s="76"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="41">
+        <v>100</v>
+      </c>
+      <c r="F12" s="76"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="42"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="40">
+        <v>100</v>
+      </c>
+      <c r="F13" s="76"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="42"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="40">
+        <v>100</v>
+      </c>
+      <c r="F14" s="76"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="42"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="40">
+        <v>100</v>
+      </c>
+      <c r="F15" s="76"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="42"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="40">
+        <v>100</v>
+      </c>
+      <c r="F16" s="76"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="42"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="40">
+        <v>100</v>
+      </c>
+      <c r="F17" s="76"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="42"/>
+      <c r="B18" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="40">
+        <v>100</v>
+      </c>
+      <c r="F18" s="76"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="42"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="40">
+        <v>100</v>
+      </c>
+      <c r="F19" s="76"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="42"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="40">
+        <v>100</v>
+      </c>
+      <c r="F20" s="76"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="42"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="40">
+        <v>100</v>
+      </c>
+      <c r="F21" s="76"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="42"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="40">
+        <v>100</v>
+      </c>
+      <c r="F22" s="76"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="35"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="23">
+        <v>100</v>
+      </c>
+      <c r="F23" s="76"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="39">
+        <v>100</v>
+      </c>
+      <c r="F24" s="76"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="37"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="28">
+        <v>100</v>
+      </c>
+      <c r="F25" s="76"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="37"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="28">
+        <v>100</v>
+      </c>
+      <c r="F26" s="76"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="37"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="28">
+        <v>100</v>
+      </c>
+      <c r="F27" s="76"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="37"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="28">
+        <v>100</v>
+      </c>
+      <c r="F28" s="76"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="37"/>
+      <c r="B29" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="28">
+        <v>100</v>
+      </c>
+      <c r="F29" s="76"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="37"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="28">
+        <v>100</v>
+      </c>
+      <c r="F30" s="76"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="37"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="28">
+        <v>100</v>
+      </c>
+      <c r="F31" s="76"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="37"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="28">
+        <v>100</v>
+      </c>
+      <c r="F32" s="76"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="38"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="30">
+        <v>100</v>
+      </c>
+      <c r="F33" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A23"/>
+    <mergeCell ref="A24:A33"/>
+    <mergeCell ref="F2:F33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="50"/>
+      <c r="B3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="76"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="50"/>
+      <c r="B4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="76"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="50"/>
+      <c r="B5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="76"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="50"/>
+      <c r="B6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="76"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="50"/>
+      <c r="B7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="76"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="50"/>
+      <c r="B8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="76"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="50"/>
+      <c r="B9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="76"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="50"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="76"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="50"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="76"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="76" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="76"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="55"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="76"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="50"/>
+      <c r="D15" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="73"/>
+      <c r="G15" s="76" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="59"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="76"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="50"/>
+      <c r="D17" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="61"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="76"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="73"/>
+      <c r="G18" s="45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="65"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="73"/>
+      <c r="G20" s="76" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="50"/>
+      <c r="D21" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" s="71"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="76"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C22" s="50"/>
+      <c r="D22" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" s="73"/>
+      <c r="G22" s="76" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C23" s="50"/>
+      <c r="D23" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="43"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="76"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C24" s="50"/>
+      <c r="D24" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="43"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C25" s="50"/>
+      <c r="D25" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="43"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C26" s="50"/>
+      <c r="D26" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="50"/>
+      <c r="D27" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="44"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="C2:C27"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="F12:F27"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="E12:E14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Offline/BusinessManagement/Commerce/CampaignPrioritization.xlsx
+++ b/Offline/BusinessManagement/Commerce/CampaignPrioritization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="828" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="828" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,9 @@
     <sheet name="Academic IX-X" sheetId="5" r:id="rId4"/>
     <sheet name="Academic XI-XII" sheetId="8" r:id="rId5"/>
     <sheet name="Academic BCom" sheetId="9" r:id="rId6"/>
-    <sheet name="Professional Courses" sheetId="6" r:id="rId7"/>
-    <sheet name="Corporate Training" sheetId="7" r:id="rId8"/>
+    <sheet name="Academic BBA" sheetId="10" r:id="rId7"/>
+    <sheet name="Professional Courses" sheetId="6" r:id="rId8"/>
+    <sheet name="Corporate Training" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$W$1:$W$85</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="200">
   <si>
     <t>Student Cluster</t>
   </si>
@@ -540,6 +541,90 @@
   </si>
   <si>
     <t>Debasish Nath</t>
+  </si>
+  <si>
+    <t>JU</t>
+  </si>
+  <si>
+    <t>Essentials of Mathematics</t>
+  </si>
+  <si>
+    <t>Essentials of Statistics</t>
+  </si>
+  <si>
+    <t>Computer Applications in Business</t>
+  </si>
+  <si>
+    <t>Business Communication</t>
+  </si>
+  <si>
+    <t>Advanced Maths and Stats</t>
+  </si>
+  <si>
+    <t>Organizational Behavior</t>
+  </si>
+  <si>
+    <t>Indian Social Structure and Ethics</t>
+  </si>
+  <si>
+    <t>Principles of Management</t>
+  </si>
+  <si>
+    <t>Managerial Economics</t>
+  </si>
+  <si>
+    <t>Business Laws</t>
+  </si>
+  <si>
+    <t>Financial Accounting</t>
+  </si>
+  <si>
+    <t>Environment Studies</t>
+  </si>
+  <si>
+    <t>Production and Materials Management</t>
+  </si>
+  <si>
+    <t>Management Information System</t>
+  </si>
+  <si>
+    <t>Cost Accounting</t>
+  </si>
+  <si>
+    <t>Marketing Management</t>
+  </si>
+  <si>
+    <t>HRM</t>
+  </si>
+  <si>
+    <t>Sales and Distribution Management</t>
+  </si>
+  <si>
+    <t>Human Resource Development</t>
+  </si>
+  <si>
+    <t>Enterpreneurship Development</t>
+  </si>
+  <si>
+    <t>Research Methodology</t>
+  </si>
+  <si>
+    <t>Management Accounting</t>
+  </si>
+  <si>
+    <t>Advertisement and Sales Promotion</t>
+  </si>
+  <si>
+    <t>Industrial Relations</t>
+  </si>
+  <si>
+    <t>Public Service Management</t>
+  </si>
+  <si>
+    <t>Project and Viva</t>
+  </si>
+  <si>
+    <t>English Teacher</t>
   </si>
 </sst>
 </file>
@@ -986,7 +1071,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1018,6 +1103,27 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1042,75 +1148,19 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1122,8 +1172,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4103,12 +4191,12 @@
       <c r="E1" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="47" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="48" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -4123,12 +4211,12 @@
       <c r="E2" s="13">
         <v>100</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="56" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
         <v>94</v>
@@ -4139,10 +4227,10 @@
       <c r="E3" s="15">
         <v>100</v>
       </c>
-      <c r="F3" s="76"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="7" t="s">
         <v>92</v>
       </c>
@@ -4155,10 +4243,10 @@
       <c r="E4" s="15">
         <v>100</v>
       </c>
-      <c r="F4" s="76"/>
+      <c r="F4" s="56"/>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17" t="s">
         <v>94</v>
@@ -4169,10 +4257,10 @@
       <c r="E5" s="18">
         <v>100</v>
       </c>
-      <c r="F5" s="76"/>
+      <c r="F5" s="56"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="51" t="s">
         <v>98</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -4187,10 +4275,10 @@
       <c r="E6" s="21">
         <v>20</v>
       </c>
-      <c r="F6" s="76"/>
+      <c r="F6" s="56"/>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="35"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="22" t="s">
         <v>92</v>
       </c>
@@ -4203,10 +4291,10 @@
       <c r="E7" s="23">
         <v>20</v>
       </c>
-      <c r="F7" s="76"/>
+      <c r="F7" s="56"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="53" t="s">
         <v>95</v>
       </c>
       <c r="B8" s="25" t="s">
@@ -4221,10 +4309,10 @@
       <c r="E8" s="26">
         <v>100</v>
       </c>
-      <c r="F8" s="76"/>
+      <c r="F8" s="56"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
         <v>97</v>
@@ -4235,10 +4323,10 @@
       <c r="E9" s="28">
         <v>100</v>
       </c>
-      <c r="F9" s="76"/>
+      <c r="F9" s="56"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="9" t="s">
         <v>92</v>
       </c>
@@ -4251,10 +4339,10 @@
       <c r="E10" s="28">
         <v>100</v>
       </c>
-      <c r="F10" s="76"/>
+      <c r="F10" s="56"/>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29" t="s">
         <v>97</v>
@@ -4265,7 +4353,7 @@
       <c r="E11" s="30">
         <v>100</v>
       </c>
-      <c r="F11" s="76"/>
+      <c r="F11" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4313,12 +4401,12 @@
       <c r="E1" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="47" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="48" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -4333,12 +4421,12 @@
       <c r="E2" s="13">
         <v>100</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="56" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
         <v>101</v>
@@ -4349,10 +4437,10 @@
       <c r="E3" s="15">
         <v>100</v>
       </c>
-      <c r="F3" s="76"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
         <v>94</v>
@@ -4363,10 +4451,10 @@
       <c r="E4" s="15">
         <v>100</v>
       </c>
-      <c r="F4" s="76"/>
+      <c r="F4" s="56"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
         <v>102</v>
@@ -4377,10 +4465,10 @@
       <c r="E5" s="15">
         <v>100</v>
       </c>
-      <c r="F5" s="76"/>
+      <c r="F5" s="56"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
         <v>114</v>
@@ -4391,10 +4479,10 @@
       <c r="E6" s="15">
         <v>100</v>
       </c>
-      <c r="F6" s="76"/>
+      <c r="F6" s="56"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="7" t="s">
         <v>99</v>
       </c>
@@ -4407,10 +4495,10 @@
       <c r="E7" s="15">
         <v>100</v>
       </c>
-      <c r="F7" s="76"/>
+      <c r="F7" s="56"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
         <v>101</v>
@@ -4421,10 +4509,10 @@
       <c r="E8" s="15">
         <v>100</v>
       </c>
-      <c r="F8" s="76"/>
+      <c r="F8" s="56"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
         <v>94</v>
@@ -4435,10 +4523,10 @@
       <c r="E9" s="15">
         <v>100</v>
       </c>
-      <c r="F9" s="76"/>
+      <c r="F9" s="56"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
         <v>102</v>
@@ -4449,10 +4537,10 @@
       <c r="E10" s="15">
         <v>100</v>
       </c>
-      <c r="F10" s="76"/>
+      <c r="F10" s="56"/>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="33"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17" t="s">
         <v>114</v>
@@ -4463,10 +4551,10 @@
       <c r="E11" s="18">
         <v>100</v>
       </c>
-      <c r="F11" s="76"/>
+      <c r="F11" s="56"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="51" t="s">
         <v>98</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -4478,13 +4566,13 @@
       <c r="D12" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="33">
         <v>100</v>
       </c>
-      <c r="F12" s="76"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
         <v>94</v>
@@ -4492,13 +4580,13 @@
       <c r="D13" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="32">
         <v>100</v>
       </c>
-      <c r="F13" s="76"/>
+      <c r="F13" s="56"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
         <v>102</v>
@@ -4506,13 +4594,13 @@
       <c r="D14" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="32">
         <v>100</v>
       </c>
-      <c r="F14" s="76"/>
+      <c r="F14" s="56"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
         <v>104</v>
@@ -4520,13 +4608,13 @@
       <c r="D15" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="32">
         <v>100</v>
       </c>
-      <c r="F15" s="76"/>
+      <c r="F15" s="56"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
         <v>105</v>
@@ -4534,13 +4622,13 @@
       <c r="D16" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="32">
         <v>100</v>
       </c>
-      <c r="F16" s="76"/>
+      <c r="F16" s="56"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
         <v>114</v>
@@ -4548,13 +4636,13 @@
       <c r="D17" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="32">
         <v>100</v>
       </c>
-      <c r="F17" s="76"/>
+      <c r="F17" s="56"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="42"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="8" t="s">
         <v>99</v>
       </c>
@@ -4564,13 +4652,13 @@
       <c r="D18" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="32">
         <v>100</v>
       </c>
-      <c r="F18" s="76"/>
+      <c r="F18" s="56"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="42"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
         <v>94</v>
@@ -4578,13 +4666,13 @@
       <c r="D19" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="32">
         <v>100</v>
       </c>
-      <c r="F19" s="76"/>
+      <c r="F19" s="56"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="42"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
         <v>102</v>
@@ -4592,13 +4680,13 @@
       <c r="D20" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="32">
         <v>100</v>
       </c>
-      <c r="F20" s="76"/>
+      <c r="F20" s="56"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
         <v>104</v>
@@ -4606,13 +4694,13 @@
       <c r="D21" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="32">
         <v>100</v>
       </c>
-      <c r="F21" s="76"/>
+      <c r="F21" s="56"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="42"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
         <v>105</v>
@@ -4620,13 +4708,13 @@
       <c r="D22" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="32">
         <v>100</v>
       </c>
-      <c r="F22" s="76"/>
+      <c r="F22" s="56"/>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="35"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22" t="s">
         <v>114</v>
@@ -4637,10 +4725,10 @@
       <c r="E23" s="23">
         <v>100</v>
       </c>
-      <c r="F23" s="76"/>
+      <c r="F23" s="56"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="53" t="s">
         <v>95</v>
       </c>
       <c r="B24" s="19" t="s">
@@ -4652,13 +4740,13 @@
       <c r="D24" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="31">
         <v>100</v>
       </c>
-      <c r="F24" s="76"/>
+      <c r="F24" s="56"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9" t="s">
         <v>94</v>
@@ -4669,10 +4757,10 @@
       <c r="E25" s="28">
         <v>100</v>
       </c>
-      <c r="F25" s="76"/>
+      <c r="F25" s="56"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9" t="s">
         <v>102</v>
@@ -4683,10 +4771,10 @@
       <c r="E26" s="28">
         <v>100</v>
       </c>
-      <c r="F26" s="76"/>
+      <c r="F26" s="56"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
         <v>107</v>
@@ -4697,10 +4785,10 @@
       <c r="E27" s="28">
         <v>100</v>
       </c>
-      <c r="F27" s="76"/>
+      <c r="F27" s="56"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9" t="s">
         <v>108</v>
@@ -4711,10 +4799,10 @@
       <c r="E28" s="28">
         <v>100</v>
       </c>
-      <c r="F28" s="76"/>
+      <c r="F28" s="56"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="9" t="s">
         <v>99</v>
       </c>
@@ -4727,10 +4815,10 @@
       <c r="E29" s="28">
         <v>100</v>
       </c>
-      <c r="F29" s="76"/>
+      <c r="F29" s="56"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9" t="s">
         <v>94</v>
@@ -4741,10 +4829,10 @@
       <c r="E30" s="28">
         <v>100</v>
       </c>
-      <c r="F30" s="76"/>
+      <c r="F30" s="56"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9" t="s">
         <v>102</v>
@@ -4755,10 +4843,10 @@
       <c r="E31" s="28">
         <v>100</v>
       </c>
-      <c r="F31" s="76"/>
+      <c r="F31" s="56"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9" t="s">
         <v>107</v>
@@ -4769,10 +4857,10 @@
       <c r="E32" s="28">
         <v>100</v>
       </c>
-      <c r="F32" s="76"/>
+      <c r="F32" s="56"/>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="38"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="29"/>
       <c r="C33" s="29" t="s">
         <v>108</v>
@@ -4783,7 +4871,7 @@
       <c r="E33" s="30">
         <v>100</v>
       </c>
-      <c r="F33" s="76"/>
+      <c r="F33" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4801,8 +4889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4838,156 +4926,156 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="58" t="s">
         <v>116</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="56" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="46" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="76"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="46" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="76"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="46" t="s">
+      <c r="C5" s="58"/>
+      <c r="D5" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="76"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="46" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="76"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="56"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="46" t="s">
+      <c r="C7" s="58"/>
+      <c r="D7" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="76"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="56"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="46" t="s">
+      <c r="C8" s="58"/>
+      <c r="D8" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="76"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="56"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="46" t="s">
+      <c r="C9" s="58"/>
+      <c r="D9" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="76"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="56"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="46" t="s">
+      <c r="C10" s="58"/>
+      <c r="D10" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="76"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="50"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51" t="s">
+      <c r="C11" s="58"/>
+      <c r="D11" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="76"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="56"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="G12" s="76" t="s">
+      <c r="G12" s="56" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4995,39 +5083,39 @@
       <c r="A13" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="50"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="56"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="54" t="s">
+      <c r="C14" s="58"/>
+      <c r="D14" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="76"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="56"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="56" t="s">
+      <c r="C15" s="58"/>
+      <c r="D15" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="F15" s="73"/>
-      <c r="G15" s="76" t="s">
+      <c r="F15" s="62"/>
+      <c r="G15" s="56" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5035,140 +5123,140 @@
       <c r="A16" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="58" t="s">
+      <c r="C16" s="58"/>
+      <c r="D16" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="76"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="56"/>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="60" t="s">
+      <c r="C17" s="58"/>
+      <c r="D17" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="E17" s="61"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="76"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="56"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="62" t="s">
+      <c r="C18" s="58"/>
+      <c r="D18" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="E18" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="F18" s="73"/>
-      <c r="G18" s="45" t="s">
+      <c r="F18" s="62"/>
+      <c r="G18" s="34" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="64" t="s">
+      <c r="C19" s="58"/>
+      <c r="D19" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="65"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="45" t="s">
+      <c r="E19" s="71"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="34" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="68" t="s">
+      <c r="C20" s="58"/>
+      <c r="D20" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="69" t="s">
+      <c r="E20" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="F20" s="73"/>
-      <c r="G20" s="76" t="s">
+      <c r="F20" s="62"/>
+      <c r="G20" s="56" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="50"/>
-      <c r="D21" s="70" t="s">
+      <c r="C21" s="58"/>
+      <c r="D21" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="76"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="56"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C22" s="50"/>
-      <c r="D22" s="66" t="s">
+      <c r="C22" s="58"/>
+      <c r="D22" s="44" t="s">
         <v>154</v>
       </c>
       <c r="E22" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="F22" s="73"/>
-      <c r="G22" s="76" t="s">
+      <c r="F22" s="62"/>
+      <c r="G22" s="56" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C23" s="50"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="76"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="56"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C24" s="50"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="45" t="s">
+      <c r="E24" s="68"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="34" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C25" s="50"/>
+      <c r="C25" s="58"/>
       <c r="D25" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="45" t="s">
+      <c r="E25" s="68"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="34" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C26" s="50"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="45" t="s">
+      <c r="E26" s="68"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="34" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="50"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="45" t="s">
+      <c r="E27" s="69"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="34" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5197,9 +5285,386 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="58"/>
+      <c r="B3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="58"/>
+      <c r="B4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="58"/>
+      <c r="B5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="58"/>
+      <c r="B6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="58"/>
+      <c r="B7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="58"/>
+      <c r="B8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="58"/>
+      <c r="B9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="58"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="58"/>
+      <c r="D10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="58"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="58"/>
+      <c r="D11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="58"/>
+      <c r="D13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="58"/>
+      <c r="D15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="C20" s="58"/>
+      <c r="D20" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="58"/>
+      <c r="D21" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="58"/>
+      <c r="D22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="58"/>
+      <c r="D23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="58"/>
+      <c r="D24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="58"/>
+      <c r="D25" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="58"/>
+      <c r="D26" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="58"/>
+      <c r="D27" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="58"/>
+      <c r="D28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="58"/>
+      <c r="D29" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C30" s="58"/>
+      <c r="D30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C31" s="58"/>
+      <c r="D31" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:C31"/>
+    <mergeCell ref="A2:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -5207,7 +5672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Offline/BusinessManagement/Commerce/CampaignPrioritization.xlsx
+++ b/Offline/BusinessManagement/Commerce/CampaignPrioritization.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="828" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="828" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Academic IX-X" sheetId="5" r:id="rId4"/>
-    <sheet name="Academic XI-XII" sheetId="8" r:id="rId5"/>
-    <sheet name="Academic BCom" sheetId="9" r:id="rId6"/>
-    <sheet name="Academic BBA" sheetId="10" r:id="rId7"/>
+    <sheet name="IX-X" sheetId="5" r:id="rId4"/>
+    <sheet name="XI-XII" sheetId="8" r:id="rId5"/>
+    <sheet name="BCom" sheetId="9" r:id="rId6"/>
+    <sheet name="BBA" sheetId="10" r:id="rId7"/>
     <sheet name="Professional Courses" sheetId="6" r:id="rId8"/>
     <sheet name="Corporate Training" sheetId="7" r:id="rId9"/>
   </sheets>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="200">
   <si>
     <t>Student Cluster</t>
   </si>
@@ -537,12 +537,6 @@
     <t>Anupam Sen</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Debasish Nath</t>
-  </si>
-  <si>
     <t>JU</t>
   </si>
   <si>
@@ -624,14 +618,20 @@
     <t>Project and Viva</t>
   </si>
   <si>
-    <t>English Teacher</t>
+    <t>? English Teacher</t>
+  </si>
+  <si>
+    <t>? Stats Teacher</t>
+  </si>
+  <si>
+    <t>? Debasish Nath</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,6 +655,12 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -699,12 +705,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -727,8 +727,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -758,35 +764,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -823,46 +801,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -935,19 +883,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -970,30 +905,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1034,7 +945,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1045,175 +958,488 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4159,208 +4385,209 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="B1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C2" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D2" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E2" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F2" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="G2" s="56" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E3" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="13">
+      <c r="F3" s="9">
         <v>100</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="G3" s="35" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="27"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="15">
+      <c r="F4" s="10">
         <v>100</v>
       </c>
-      <c r="F3" s="56"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="7" t="s">
+      <c r="G4" s="36"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="27"/>
+      <c r="C5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="15">
+      <c r="F5" s="10">
         <v>100</v>
       </c>
-      <c r="F4" s="56"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="50"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17" t="s">
+      <c r="G5" s="36"/>
+    </row>
+    <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="28"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E6" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="18">
+      <c r="F6" s="12">
         <v>100</v>
       </c>
-      <c r="F5" s="56"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="51" t="s">
+      <c r="G6" s="36"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="C7" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="D7" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="E7" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="21">
+      <c r="F7" s="15">
         <v>20</v>
       </c>
-      <c r="F6" s="56"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="52"/>
-      <c r="B7" s="22" t="s">
+      <c r="G7" s="36"/>
+    </row>
+    <row r="8" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="30"/>
+      <c r="C8" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="D8" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="E8" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="23">
+      <c r="F8" s="17">
         <v>20</v>
       </c>
-      <c r="F7" s="56"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="53" t="s">
+      <c r="G8" s="36"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="C9" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="D9" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="E9" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="26">
+      <c r="F9" s="19">
         <v>100</v>
       </c>
-      <c r="F8" s="56"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
+      <c r="G9" s="36"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="32"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="28">
+      <c r="F10" s="20">
         <v>100</v>
       </c>
-      <c r="F9" s="56"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
-      <c r="B10" s="9" t="s">
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="32"/>
+      <c r="C11" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="28">
+      <c r="F11" s="20">
         <v>100</v>
       </c>
-      <c r="F10" s="56"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="55"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29" t="s">
+      <c r="G11" s="36"/>
+    </row>
+    <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="33"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="E12" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="30">
+      <c r="F12" s="22">
         <v>100</v>
       </c>
-      <c r="F11" s="56"/>
+      <c r="G12" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="G3:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4369,516 +4596,517 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="B1:G34"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C2" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D2" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E2" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F2" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="G2" s="56" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C3" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D3" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E3" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="13">
+      <c r="F3" s="58">
         <v>100</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="G3" s="35" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="27"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="15">
+      <c r="F4" s="10">
         <v>100</v>
       </c>
-      <c r="F3" s="56"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
+      <c r="G4" s="36"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="27"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="15">
+      <c r="F5" s="10">
         <v>100</v>
       </c>
-      <c r="F4" s="56"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
+      <c r="G5" s="36"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="27"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="15">
+      <c r="F6" s="10">
         <v>100</v>
       </c>
-      <c r="F5" s="56"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
+      <c r="G6" s="36"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="27"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="15">
+      <c r="F7" s="10">
         <v>100</v>
       </c>
-      <c r="F6" s="56"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
-      <c r="B7" s="7" t="s">
+      <c r="G7" s="36"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="27"/>
+      <c r="C8" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="15">
+      <c r="F8" s="10">
         <v>100</v>
       </c>
-      <c r="F7" s="56"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
+      <c r="G8" s="36"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="27"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="15">
+      <c r="F9" s="10">
         <v>100</v>
       </c>
-      <c r="F8" s="56"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
+      <c r="G9" s="36"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="27"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="15">
+      <c r="F10" s="10">
         <v>100</v>
       </c>
-      <c r="F9" s="56"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="27"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="15">
+      <c r="F11" s="10">
         <v>100</v>
       </c>
-      <c r="F10" s="56"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="50"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17" t="s">
+      <c r="G11" s="36"/>
+    </row>
+    <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="28"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="E12" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="18">
+      <c r="F12" s="12">
         <v>100</v>
       </c>
-      <c r="F11" s="56"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C13" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D13" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E13" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="33">
+      <c r="F13" s="25">
         <v>100</v>
       </c>
-      <c r="F12" s="56"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="57"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="34"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E14" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="32">
+      <c r="F14" s="24">
         <v>100</v>
       </c>
-      <c r="F13" s="56"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="57"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8" t="s">
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="34"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E15" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="32">
+      <c r="F15" s="24">
         <v>100</v>
       </c>
-      <c r="F14" s="56"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="57"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8" t="s">
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="34"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E16" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="32">
+      <c r="F16" s="24">
         <v>100</v>
       </c>
-      <c r="F15" s="56"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="57"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8" t="s">
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="34"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="E17" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="32">
+      <c r="F17" s="24">
         <v>100</v>
       </c>
-      <c r="F16" s="56"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="57"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8" t="s">
+      <c r="G17" s="36"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="34"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E18" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="32">
+      <c r="F18" s="24">
         <v>100</v>
       </c>
-      <c r="F17" s="56"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="57"/>
-      <c r="B18" s="8" t="s">
+      <c r="G18" s="36"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="34"/>
+      <c r="C19" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D19" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E19" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="32">
+      <c r="F19" s="24">
         <v>100</v>
       </c>
-      <c r="F18" s="56"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="57"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8" t="s">
+      <c r="G19" s="36"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="34"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="E20" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="32">
+      <c r="F20" s="24">
         <v>100</v>
       </c>
-      <c r="F19" s="56"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="57"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8" t="s">
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="34"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="E21" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="32">
+      <c r="F21" s="24">
         <v>100</v>
       </c>
-      <c r="F20" s="56"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="57"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8" t="s">
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="34"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="E22" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="32">
+      <c r="F22" s="24">
         <v>100</v>
       </c>
-      <c r="F21" s="56"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="57"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8" t="s">
+      <c r="G22" s="36"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="34"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="E23" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="32">
+      <c r="F23" s="24">
         <v>100</v>
       </c>
-      <c r="F22" s="56"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="52"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22" t="s">
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="30"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="E24" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="23">
+      <c r="F24" s="17">
         <v>100</v>
       </c>
-      <c r="F23" s="56"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="53" t="s">
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="C25" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="D25" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="E25" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="31">
+      <c r="F25" s="23">
         <v>100</v>
       </c>
-      <c r="F24" s="56"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9" t="s">
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="32"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="E26" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="28">
+      <c r="F26" s="20">
         <v>100</v>
       </c>
-      <c r="F25" s="56"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="54"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9" t="s">
+      <c r="G26" s="36"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="32"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="E27" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E26" s="28">
+      <c r="F27" s="20">
         <v>100</v>
       </c>
-      <c r="F26" s="56"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9" t="s">
+      <c r="G27" s="36"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="32"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="E28" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="28">
+      <c r="F28" s="20">
         <v>100</v>
       </c>
-      <c r="F27" s="56"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="54"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9" t="s">
+      <c r="G28" s="36"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="32"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="E29" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="28">
+      <c r="F29" s="20">
         <v>100</v>
       </c>
-      <c r="F28" s="56"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="54"/>
-      <c r="B29" s="9" t="s">
+      <c r="G29" s="36"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="32"/>
+      <c r="C30" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="D30" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="E30" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="28">
+      <c r="F30" s="20">
         <v>100</v>
       </c>
-      <c r="F29" s="56"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="54"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9" t="s">
+      <c r="G30" s="36"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="32"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="E31" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="28">
+      <c r="F31" s="20">
         <v>100</v>
       </c>
-      <c r="F30" s="56"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="54"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9" t="s">
+      <c r="G31" s="36"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="32"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="E32" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="28">
+      <c r="F32" s="20">
         <v>100</v>
       </c>
-      <c r="F31" s="56"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="54"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9" t="s">
+      <c r="G32" s="36"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="32"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="E33" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E32" s="28">
+      <c r="F33" s="20">
         <v>100</v>
       </c>
-      <c r="F32" s="56"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="55"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29" t="s">
+      <c r="G33" s="36"/>
+    </row>
+    <row r="34" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="33"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="E34" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="30">
+      <c r="F34" s="22">
         <v>100</v>
       </c>
-      <c r="F33" s="56"/>
+      <c r="G34" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A23"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="F2:F33"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="B13:B24"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="G3:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4887,396 +5115,391 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A18"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.109375" customWidth="1"/>
+    <col min="7" max="7" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="2:8" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C2" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="H2" s="64" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C3" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="D3" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="E3" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="G2" s="56" t="s">
+      <c r="H3" s="35" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="5" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="60"/>
+      <c r="C4" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="35" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="56"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
-      <c r="B4" s="5" t="s">
+      <c r="H4" s="36"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="60"/>
+      <c r="C5" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="35" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="56"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="5" t="s">
+      <c r="H5" s="36"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="60"/>
+      <c r="C6" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="35" t="s">
+      <c r="D6" s="60"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="56"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
-      <c r="B6" s="5" t="s">
+      <c r="H6" s="36"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="60"/>
+      <c r="C7" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="35" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="56"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
-      <c r="B7" s="5" t="s">
+      <c r="H7" s="36"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="60"/>
+      <c r="C8" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="35" t="s">
+      <c r="D8" s="60"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="56"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
-      <c r="B8" s="5" t="s">
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="60"/>
+      <c r="C9" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="35" t="s">
+      <c r="D9" s="60"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="56"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
-      <c r="B9" s="5" t="s">
+      <c r="H9" s="36"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="60"/>
+      <c r="C10" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="35" t="s">
+      <c r="D10" s="60"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="56"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="35" t="s">
+      <c r="H10" s="36"/>
+    </row>
+    <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="60"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="56"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="58"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="37" t="s">
+      <c r="H11" s="36"/>
+    </row>
+    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="61"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="56"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="H12" s="50"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="24" t="s">
+      <c r="D13" s="60"/>
+      <c r="E13" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="56" t="s">
+      <c r="H13" s="87" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="27" t="s">
+      <c r="D14" s="60"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="E13" s="76"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="56"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="H14" s="88"/>
+    </row>
+    <row r="15" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="38" t="s">
+      <c r="D15" s="60"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="77"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="56"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="H15" s="89"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="39" t="s">
+      <c r="D16" s="60"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="E15" s="64" t="s">
-        <v>148</v>
-      </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="56" t="s">
+      <c r="H16" s="92" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="40" t="s">
+      <c r="D17" s="60"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="65"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="56"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+      <c r="H17" s="93"/>
+    </row>
+    <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="41" t="s">
+      <c r="D18" s="60"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="79" t="s">
         <v>159</v>
       </c>
-      <c r="E17" s="66"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="56"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="H18" s="94"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="42" t="s">
+      <c r="D19" s="60"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="E18" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="F18" s="62"/>
-      <c r="G18" s="34" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="43" t="s">
+      <c r="H19" s="97" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="67"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="71"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="34" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="45" t="s">
+      <c r="H20" s="98"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D21" s="60"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="72" t="s">
-        <v>153</v>
-      </c>
-      <c r="F20" s="62"/>
-      <c r="G20" s="56" t="s">
+      <c r="H21" s="95" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="58"/>
-      <c r="D21" s="46" t="s">
+    <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="60"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="E21" s="73"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="56"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C22" s="58"/>
-      <c r="D22" s="44" t="s">
+      <c r="H22" s="96"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D23" s="60"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="E22" s="67" t="s">
-        <v>156</v>
-      </c>
-      <c r="F22" s="62"/>
-      <c r="G22" s="56" t="s">
+      <c r="H23" s="90" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C23" s="58"/>
-      <c r="D23" s="14" t="s">
+    <row r="24" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D24" s="60"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="E23" s="68"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="56"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C24" s="58"/>
-      <c r="D24" s="14" t="s">
+      <c r="H24" s="91"/>
+    </row>
+    <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="60"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="85" t="s">
         <v>160</v>
       </c>
-      <c r="E24" s="68"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="34" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C25" s="58"/>
-      <c r="D25" s="14" t="s">
+      <c r="H25" s="99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D26" s="60"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="85" t="s">
         <v>161</v>
       </c>
-      <c r="E25" s="68"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="34" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C26" s="58"/>
-      <c r="D26" s="14" t="s">
+      <c r="H26" s="97" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D27" s="60"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="85" t="s">
         <v>162</v>
       </c>
-      <c r="E26" s="68"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="34" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="58"/>
-      <c r="D27" s="16" t="s">
+      <c r="H27" s="100"/>
+    </row>
+    <row r="28" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D28" s="61"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="E27" s="69"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="34" t="s">
-        <v>171</v>
-      </c>
+      <c r="H28" s="98"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="C2:C27"/>
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="F12:F27"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="E12:E14"/>
+  <mergeCells count="17">
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="D3:D28"/>
+    <mergeCell ref="F3:F12"/>
+    <mergeCell ref="E13:E28"/>
+    <mergeCell ref="H3:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="F23:F28"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E3:E12"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5285,375 +5508,326 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="B1:F32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C2" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F2" s="56" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="58" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C3" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="D3" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="E3" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" s="97" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="60"/>
+      <c r="C4" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="98"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="60"/>
+      <c r="C5" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="60"/>
+      <c r="E5" s="103" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="97" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="60"/>
+      <c r="C6" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="60"/>
+      <c r="E6" s="106" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="100"/>
+    </row>
+    <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="60"/>
+      <c r="C7" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="107" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="98"/>
+    </row>
+    <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="60"/>
+      <c r="C8" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="60"/>
+      <c r="E8" s="108" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" s="99" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="60"/>
+      <c r="C9" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="60"/>
+      <c r="E9" s="109" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="60"/>
+      <c r="C10" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="60"/>
+      <c r="E10" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="36"/>
+    </row>
+    <row r="11" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="60"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="36"/>
+    </row>
+    <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="61"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" s="36"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="102" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="58"/>
-      <c r="B4" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
-      <c r="B6" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
-      <c r="B7" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="E7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
-      <c r="B8" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
-      <c r="B9" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="58"/>
-      <c r="D9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="58"/>
-      <c r="D10" t="s">
+      <c r="D13" s="60"/>
+      <c r="E13" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="E10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="58"/>
-      <c r="D11" t="s">
+      <c r="F13" s="36"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="60"/>
+      <c r="E14" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="E11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="58"/>
-      <c r="D12" t="s">
+      <c r="F14" s="36"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="101" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="60"/>
+      <c r="E15" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="E12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="58"/>
-      <c r="D13" t="s">
+      <c r="F15" s="36"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="101" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="60"/>
+      <c r="E16" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="E13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="58"/>
-      <c r="D14" t="s">
+      <c r="F16" s="36"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="101" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="60"/>
+      <c r="E17" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="E14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="58"/>
-      <c r="D15" t="s">
+      <c r="F17" s="36"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="101" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="60"/>
+      <c r="E18" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="E15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="58"/>
-      <c r="D16" t="s">
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="60"/>
+      <c r="E19" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="E16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="58"/>
-      <c r="D17" t="s">
+      <c r="F19" s="36"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="101" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="60"/>
+      <c r="E20" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="E17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="58"/>
-      <c r="D18" t="s">
+      <c r="F20" s="36"/>
+    </row>
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="67"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="E18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="58"/>
-      <c r="D19" t="s">
+      <c r="F21" s="36"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D22" s="60"/>
+      <c r="E22" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="E19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="C20" s="58"/>
-      <c r="D20" t="s">
+      <c r="F22" s="36"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D23" s="60"/>
+      <c r="E23" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="60"/>
+      <c r="E24" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="E20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="58"/>
-      <c r="D21" t="s">
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D25" s="60"/>
+      <c r="E25" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="E21" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="58"/>
-      <c r="D22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="58"/>
-      <c r="D23" t="s">
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D26" s="60"/>
+      <c r="E26" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="E23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="58"/>
-      <c r="D24" t="s">
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D27" s="60"/>
+      <c r="E27" s="72" t="s">
         <v>191</v>
       </c>
-      <c r="E24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="58"/>
-      <c r="D25" t="s">
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D28" s="60"/>
+      <c r="E28" s="72" t="s">
         <v>192</v>
       </c>
-      <c r="E25" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C26" s="58"/>
-      <c r="D26" t="s">
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D29" s="60"/>
+      <c r="E29" s="72" t="s">
         <v>193</v>
       </c>
-      <c r="E26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C27" s="58"/>
-      <c r="D27" t="s">
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D30" s="60"/>
+      <c r="E30" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E27" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C28" s="58"/>
-      <c r="D28" t="s">
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D31" s="60"/>
+      <c r="E31" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="E28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C29" s="58"/>
-      <c r="D29" t="s">
+      <c r="F31" s="36"/>
+    </row>
+    <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D32" s="61"/>
+      <c r="E32" s="110" t="s">
         <v>196</v>
       </c>
-      <c r="E29" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C30" s="58"/>
-      <c r="D30" t="s">
-        <v>197</v>
-      </c>
-      <c r="E30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C31" s="58"/>
-      <c r="D31" t="s">
-        <v>198</v>
-      </c>
-      <c r="E31" t="s">
-        <v>169</v>
-      </c>
+      <c r="F32" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C2:C31"/>
-    <mergeCell ref="A2:A11"/>
+  <mergeCells count="5">
+    <mergeCell ref="D3:D32"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="F9:F32"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5664,7 +5838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
